--- a/excel/NS_Beetrack_Mensual.xlsx
+++ b/excel/NS_Beetrack_Mensual.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC236"/>
+  <dimension ref="A1:BC287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41963,6 +41963,8990 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B237" t="n">
+        <v>36674763</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Alexander Yañez</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>PBFL64</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>70</v>
+      </c>
+      <c r="G237" t="n">
+        <v>19</v>
+      </c>
+      <c r="H237" t="n">
+        <v>19</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="n">
+        <v>0</v>
+      </c>
+      <c r="T237" t="n">
+        <v>6</v>
+      </c>
+      <c r="U237" t="n">
+        <v>32</v>
+      </c>
+      <c r="V237" t="n">
+        <v>15</v>
+      </c>
+      <c r="W237" t="n">
+        <v>79</v>
+      </c>
+      <c r="X237" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>19 (100%)</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF237" s="2" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="AG237" s="2" t="n">
+        <v>0.6729166666666667</v>
+      </c>
+      <c r="AH237" s="2" t="n">
+        <v>0.1784722222222222</v>
+      </c>
+      <c r="AI237" s="2" t="n">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC237" t="inlineStr">
+        <is>
+          <t>384998127 - 384998125 - 1203447301 - 384997158</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B238" t="n">
+        <v>36674770</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Eladio Velez</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>PBFL63</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>55</v>
+      </c>
+      <c r="G238" t="n">
+        <v>21</v>
+      </c>
+      <c r="H238" t="n">
+        <v>13</v>
+      </c>
+      <c r="I238" t="n">
+        <v>8</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="n">
+        <v>1</v>
+      </c>
+      <c r="S238" t="n">
+        <v>5</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2</v>
+      </c>
+      <c r="U238" t="n">
+        <v>10</v>
+      </c>
+      <c r="V238" t="n">
+        <v>9</v>
+      </c>
+      <c r="W238" t="n">
+        <v>43</v>
+      </c>
+      <c r="X238" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>21 (100%)</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF238" s="2" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="AG238" s="2" t="n">
+        <v>0.7236111111111111</v>
+      </c>
+      <c r="AH238" s="2" t="n">
+        <v>0.2854166666666667</v>
+      </c>
+      <c r="AI238" s="2" t="n">
+        <v>0.01319444444444444</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC238" t="inlineStr">
+        <is>
+          <t>1202842801 - 672917</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B239" t="n">
+        <v>36675704</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Mario Cejas</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SLCP83</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>216</v>
+      </c>
+      <c r="G239" t="n">
+        <v>12</v>
+      </c>
+      <c r="H239" t="n">
+        <v>12</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>7</v>
+      </c>
+      <c r="O239" t="n">
+        <v>2</v>
+      </c>
+      <c r="P239" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="n">
+        <v>1</v>
+      </c>
+      <c r="S239" t="n">
+        <v>8</v>
+      </c>
+      <c r="T239" t="n">
+        <v>4</v>
+      </c>
+      <c r="U239" t="n">
+        <v>33</v>
+      </c>
+      <c r="V239" t="n">
+        <v>8</v>
+      </c>
+      <c r="W239" t="n">
+        <v>67</v>
+      </c>
+      <c r="X239" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>12 (100%)</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF239" s="2" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+      <c r="AG239" s="2" t="n">
+        <v>0.6923611111111111</v>
+      </c>
+      <c r="AH239" s="2" t="n">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="AI239" s="2" t="n">
+        <v>0.01944444444444444</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B240" t="n">
+        <v>36678224</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Daniel Morales - Viña</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>JXDP55</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>234</v>
+      </c>
+      <c r="G240" t="n">
+        <v>20</v>
+      </c>
+      <c r="H240" t="n">
+        <v>20</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="n">
+        <v>1</v>
+      </c>
+      <c r="S240" t="n">
+        <v>5</v>
+      </c>
+      <c r="T240" t="n">
+        <v>8</v>
+      </c>
+      <c r="U240" t="n">
+        <v>40</v>
+      </c>
+      <c r="V240" t="n">
+        <v>12</v>
+      </c>
+      <c r="W240" t="n">
+        <v>60</v>
+      </c>
+      <c r="X240" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>20 (100%)</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF240" s="2" t="n">
+        <v>0.4493055555555556</v>
+      </c>
+      <c r="AG240" s="2" t="n">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="AH240" s="2" t="n">
+        <v>0.3548611111111111</v>
+      </c>
+      <c r="AI240" s="2" t="n">
+        <v>0.01736111111111111</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC240" t="inlineStr">
+        <is>
+          <t>2906221738 - 384998607 - 1203482201</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B241" t="n">
+        <v>36678989</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Roberto Cofre 2 - Viña</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>DKTL52</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>527</v>
+      </c>
+      <c r="G241" t="n">
+        <v>17</v>
+      </c>
+      <c r="H241" t="n">
+        <v>18</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>0</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1</v>
+      </c>
+      <c r="U241" t="n">
+        <v>6</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3</v>
+      </c>
+      <c r="W241" t="n">
+        <v>17</v>
+      </c>
+      <c r="X241" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>18 (100%)</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF241" s="2" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AG241" s="2" t="n">
+        <v>0.9534722222222223</v>
+      </c>
+      <c r="AH241" s="2" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AI241" s="2" t="n">
+        <v>0.02430555555555556</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC241" t="inlineStr">
+        <is>
+          <t>1203482101 - 2906164398 - 1202911401 - 1201432901</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B242" t="n">
+        <v>36679107</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Enrique Arcila - Viña Del Mar</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>DVCC69</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>66</v>
+      </c>
+      <c r="G242" t="n">
+        <v>27</v>
+      </c>
+      <c r="H242" t="n">
+        <v>27</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
+      <c r="T242" t="n">
+        <v>7</v>
+      </c>
+      <c r="U242" t="n">
+        <v>26</v>
+      </c>
+      <c r="V242" t="n">
+        <v>15</v>
+      </c>
+      <c r="W242" t="n">
+        <v>56</v>
+      </c>
+      <c r="X242" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>27 (100%)</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF242" s="2" t="n">
+        <v>0.4798611111111111</v>
+      </c>
+      <c r="AG242" s="2" t="n">
+        <v>0.7159722222222222</v>
+      </c>
+      <c r="AH242" s="2" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="AI242" s="2" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC242" t="inlineStr">
+        <is>
+          <t>1202941701</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B243" t="n">
+        <v>36679756</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Eduard Estaba</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>GJGW71</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>118</v>
+      </c>
+      <c r="G243" t="n">
+        <v>34</v>
+      </c>
+      <c r="H243" t="n">
+        <v>30</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>0</v>
+      </c>
+      <c r="T243" t="n">
+        <v>5</v>
+      </c>
+      <c r="U243" t="n">
+        <v>15</v>
+      </c>
+      <c r="V243" t="n">
+        <v>11</v>
+      </c>
+      <c r="W243" t="n">
+        <v>32</v>
+      </c>
+      <c r="X243" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>79</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>34 (100%)</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF243" s="2" t="n">
+        <v>0.4923611111111111</v>
+      </c>
+      <c r="AG243" s="2" t="n">
+        <v>0.81875</v>
+      </c>
+      <c r="AH243" s="2" t="n">
+        <v>0.3256944444444445</v>
+      </c>
+      <c r="AI243" s="2" t="n">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>91</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC243" t="inlineStr">
+        <is>
+          <t>2906121088 - 2906131067 - 2906130953</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B244" t="n">
+        <v>36679774</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Imer Pulido</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>UP5173</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>11</v>
+      </c>
+      <c r="G244" t="n">
+        <v>30</v>
+      </c>
+      <c r="H244" t="n">
+        <v>22</v>
+      </c>
+      <c r="I244" t="n">
+        <v>8</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1</v>
+      </c>
+      <c r="S244" t="n">
+        <v>3</v>
+      </c>
+      <c r="T244" t="n">
+        <v>10</v>
+      </c>
+      <c r="U244" t="n">
+        <v>33</v>
+      </c>
+      <c r="V244" t="n">
+        <v>23</v>
+      </c>
+      <c r="W244" t="n">
+        <v>77</v>
+      </c>
+      <c r="X244" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>30 (100%)</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF244" s="2" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="AG244" s="2" t="n">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="AH244" s="2" t="n">
+        <v>0.2208333333333333</v>
+      </c>
+      <c r="AI244" s="2" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B245" t="n">
+        <v>36679812</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Enmanuel Estaba</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>GJGW69</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>67</v>
+      </c>
+      <c r="G245" t="n">
+        <v>24</v>
+      </c>
+      <c r="H245" t="n">
+        <v>21</v>
+      </c>
+      <c r="I245" t="n">
+        <v>3</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>4</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>0</v>
+      </c>
+      <c r="T245" t="n">
+        <v>11</v>
+      </c>
+      <c r="U245" t="n">
+        <v>46</v>
+      </c>
+      <c r="V245" t="n">
+        <v>22</v>
+      </c>
+      <c r="W245" t="n">
+        <v>92</v>
+      </c>
+      <c r="X245" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>24 (100%)</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF245" s="2" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AG245" s="2" t="n">
+        <v>0.6298611111111111</v>
+      </c>
+      <c r="AH245" s="2" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="AI245" s="2" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>88</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC245" t="inlineStr">
+        <is>
+          <t>384997904 - 384997583 - 384995428</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B246" t="n">
+        <v>36679946</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Carlos Orellana</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>CLRK73</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>17</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>0</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" t="n">
+        <v>0</v>
+      </c>
+      <c r="V246" t="n">
+        <v>1</v>
+      </c>
+      <c r="W246" t="n">
+        <v>100</v>
+      </c>
+      <c r="X246" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF246" s="2" t="n">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="AG246" s="2" t="n">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="AH246" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI246" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B247" t="n">
+        <v>36680316</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Ricardo Gonzalez</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>LBWH91TY</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>86</v>
+      </c>
+      <c r="G247" t="n">
+        <v>31</v>
+      </c>
+      <c r="H247" t="n">
+        <v>24</v>
+      </c>
+      <c r="I247" t="n">
+        <v>7</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>0</v>
+      </c>
+      <c r="T247" t="n">
+        <v>9</v>
+      </c>
+      <c r="U247" t="n">
+        <v>29</v>
+      </c>
+      <c r="V247" t="n">
+        <v>17</v>
+      </c>
+      <c r="W247" t="n">
+        <v>55</v>
+      </c>
+      <c r="X247" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>87</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>31 (100%)</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF247" s="2" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="AG247" s="2" t="n">
+        <v>0.7347222222222223</v>
+      </c>
+      <c r="AH247" s="2" t="n">
+        <v>0.2715277777777778</v>
+      </c>
+      <c r="AI247" s="2" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B248" t="n">
+        <v>36680339</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Luis Plaza</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>PBFL60</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>64</v>
+      </c>
+      <c r="G248" t="n">
+        <v>38</v>
+      </c>
+      <c r="H248" t="n">
+        <v>38</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>0</v>
+      </c>
+      <c r="T248" t="n">
+        <v>22</v>
+      </c>
+      <c r="U248" t="n">
+        <v>58</v>
+      </c>
+      <c r="V248" t="n">
+        <v>38</v>
+      </c>
+      <c r="W248" t="n">
+        <v>100</v>
+      </c>
+      <c r="X248" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>38 (100%)</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF248" s="2" t="n">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="AG248" s="2" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="AH248" s="2" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="AI248" s="2" t="n">
+        <v>0.002083333333333333</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B249" t="n">
+        <v>36680346</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Juan Pablo Muñoz</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>HKRH24</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>140</v>
+      </c>
+      <c r="G249" t="n">
+        <v>23</v>
+      </c>
+      <c r="H249" t="n">
+        <v>17</v>
+      </c>
+      <c r="I249" t="n">
+        <v>6</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>5</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" t="n">
+        <v>7</v>
+      </c>
+      <c r="U249" t="n">
+        <v>30</v>
+      </c>
+      <c r="V249" t="n">
+        <v>13</v>
+      </c>
+      <c r="W249" t="n">
+        <v>57</v>
+      </c>
+      <c r="X249" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>96</v>
+      </c>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>23 (100%)</t>
+        </is>
+      </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF249" s="2" t="n">
+        <v>0.4645833333333333</v>
+      </c>
+      <c r="AG249" s="2" t="n">
+        <v>0.8361111111111111</v>
+      </c>
+      <c r="AH249" s="2" t="n">
+        <v>0.3708333333333333</v>
+      </c>
+      <c r="AI249" s="2" t="n">
+        <v>0.01597222222222222</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B250" t="n">
+        <v>36683914</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Hector Vejar</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>RPFZ99</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>36</v>
+      </c>
+      <c r="G250" t="n">
+        <v>3</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>3</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>0</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2</v>
+      </c>
+      <c r="U250" t="n">
+        <v>67</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3</v>
+      </c>
+      <c r="W250" t="n">
+        <v>100</v>
+      </c>
+      <c r="X250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>3 (100%)</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF250" s="2" t="n">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="AG250" s="2" t="n">
+        <v>0.54375</v>
+      </c>
+      <c r="AH250" s="2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AI250" s="2" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B251" t="n">
+        <v>36693655</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Carlos Orellana</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>CLRK73</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" t="n">
+        <v>0</v>
+      </c>
+      <c r="W251" t="n">
+        <v>0</v>
+      </c>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF251" s="2" t="n">
+        <v>0.7173611111111111</v>
+      </c>
+      <c r="AG251" s="2" t="n">
+        <v>0.7173611111111111</v>
+      </c>
+      <c r="AH251" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI251" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B252" t="n">
+        <v>36694936</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Transporte 3</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>RJXS71</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>39</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" t="n">
+        <v>0</v>
+      </c>
+      <c r="W252" t="n">
+        <v>0</v>
+      </c>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF252" s="2" t="n">
+        <v>0.8131944444444444</v>
+      </c>
+      <c r="AG252" s="2" t="n">
+        <v>0.8131944444444444</v>
+      </c>
+      <c r="AH252" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI252" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B253" t="n">
+        <v>36694949</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Transporte 2</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>RJXS70</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>4</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF253" s="2" t="n">
+        <v>0.7909722222222222</v>
+      </c>
+      <c r="AG253" s="2" t="n">
+        <v>0.7909722222222222</v>
+      </c>
+      <c r="AH253" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI253" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B254" t="n">
+        <v>36694957</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Transporte 1</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>RGLV64</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>7</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
+      <c r="S254" t="n">
+        <v>0</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0</v>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF254" s="2" t="n">
+        <v>0.7965277777777777</v>
+      </c>
+      <c r="AG254" s="2" t="n">
+        <v>0.7965277777777777</v>
+      </c>
+      <c r="AH254" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI254" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B255" t="n">
+        <v>36696193</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Victor Molina</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>CZWV69</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>8</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>8</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>0</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0</v>
+      </c>
+      <c r="V255" t="n">
+        <v>0</v>
+      </c>
+      <c r="W255" t="n">
+        <v>0</v>
+      </c>
+      <c r="X255" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>8 (100%)</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF255" s="2" t="n">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="AG255" s="2" t="n">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="AH255" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI255" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B256" t="n">
+        <v>36678989</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Roberto Cofre 2 - Viña</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>DKTL52</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>527</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+      <c r="H256" t="n">
+        <v>18</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>0</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1</v>
+      </c>
+      <c r="U256" t="n">
+        <v>6</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3</v>
+      </c>
+      <c r="W256" t="n">
+        <v>17</v>
+      </c>
+      <c r="X256" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>18 (100%)</t>
+        </is>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF256" s="2" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AG256" s="2" t="n">
+        <v>0.9534722222222223</v>
+      </c>
+      <c r="AH256" s="2" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AI256" s="2" t="n">
+        <v>0.02430555555555556</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC256" t="inlineStr">
+        <is>
+          <t>1203482101 - 2906164398 - 1202911401 - 1201432901</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B257" t="n">
+        <v>36711436</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Enmanuel Estaba</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>GJGW69</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>84</v>
+      </c>
+      <c r="G257" t="n">
+        <v>37</v>
+      </c>
+      <c r="H257" t="n">
+        <v>30</v>
+      </c>
+      <c r="I257" t="n">
+        <v>7</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>9</v>
+      </c>
+      <c r="S257" t="n">
+        <v>24</v>
+      </c>
+      <c r="T257" t="n">
+        <v>24</v>
+      </c>
+      <c r="U257" t="n">
+        <v>65</v>
+      </c>
+      <c r="V257" t="n">
+        <v>35</v>
+      </c>
+      <c r="W257" t="n">
+        <v>95</v>
+      </c>
+      <c r="X257" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t>37 (100%)</t>
+        </is>
+      </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF257" s="2" t="n">
+        <v>0.39375</v>
+      </c>
+      <c r="AG257" s="2" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="AH257" s="2" t="n">
+        <v>0.2451388888888889</v>
+      </c>
+      <c r="AI257" s="2" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC257" t="inlineStr">
+        <is>
+          <t>1204171701 - 2906180664</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B258" t="n">
+        <v>36711457</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Manuel Lillo</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>LKKL55</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>58</v>
+      </c>
+      <c r="G258" t="n">
+        <v>25</v>
+      </c>
+      <c r="H258" t="n">
+        <v>21</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>14</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="n">
+        <v>3</v>
+      </c>
+      <c r="S258" t="n">
+        <v>12</v>
+      </c>
+      <c r="T258" t="n">
+        <v>12</v>
+      </c>
+      <c r="U258" t="n">
+        <v>48</v>
+      </c>
+      <c r="V258" t="n">
+        <v>15</v>
+      </c>
+      <c r="W258" t="n">
+        <v>60</v>
+      </c>
+      <c r="X258" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>25 (100%)</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF258" s="2" t="n">
+        <v>0.4229166666666667</v>
+      </c>
+      <c r="AG258" s="2" t="n">
+        <v>0.7909722222222222</v>
+      </c>
+      <c r="AH258" s="2" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="AI258" s="2" t="n">
+        <v>0.01458333333333333</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC258" t="inlineStr">
+        <is>
+          <t>687995</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B259" t="n">
+        <v>36711458</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Misael Caceres</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>JDBB70</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>170</v>
+      </c>
+      <c r="G259" t="n">
+        <v>20</v>
+      </c>
+      <c r="H259" t="n">
+        <v>17</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>3</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>13</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3</v>
+      </c>
+      <c r="S259" t="n">
+        <v>15</v>
+      </c>
+      <c r="T259" t="n">
+        <v>4</v>
+      </c>
+      <c r="U259" t="n">
+        <v>20</v>
+      </c>
+      <c r="V259" t="n">
+        <v>7</v>
+      </c>
+      <c r="W259" t="n">
+        <v>35</v>
+      </c>
+      <c r="X259" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>20 (100%)</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF259" s="2" t="n">
+        <v>0.4083333333333333</v>
+      </c>
+      <c r="AG259" s="2" t="n">
+        <v>0.7618055555555555</v>
+      </c>
+      <c r="AH259" s="2" t="n">
+        <v>0.3534722222222222</v>
+      </c>
+      <c r="AI259" s="2" t="n">
+        <v>0.01736111111111111</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B260" t="n">
+        <v>36711459</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Imer Pulido</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>UP5173</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>40</v>
+      </c>
+      <c r="G260" t="n">
+        <v>35</v>
+      </c>
+      <c r="H260" t="n">
+        <v>28</v>
+      </c>
+      <c r="I260" t="n">
+        <v>7</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="n">
+        <v>16</v>
+      </c>
+      <c r="S260" t="n">
+        <v>46</v>
+      </c>
+      <c r="T260" t="n">
+        <v>26</v>
+      </c>
+      <c r="U260" t="n">
+        <v>74</v>
+      </c>
+      <c r="V260" t="n">
+        <v>35</v>
+      </c>
+      <c r="W260" t="n">
+        <v>100</v>
+      </c>
+      <c r="X260" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>35 (100%)</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF260" s="2" t="n">
+        <v>0.3694444444444445</v>
+      </c>
+      <c r="AG260" s="2" t="n">
+        <v>0.5909722222222222</v>
+      </c>
+      <c r="AH260" s="2" t="n">
+        <v>0.2215277777777778</v>
+      </c>
+      <c r="AI260" s="2" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B261" t="n">
+        <v>36711679</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Juan Carlos Figueroa</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>PHHR23</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>86</v>
+      </c>
+      <c r="G261" t="n">
+        <v>18</v>
+      </c>
+      <c r="H261" t="n">
+        <v>8</v>
+      </c>
+      <c r="I261" t="n">
+        <v>10</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="n">
+        <v>4</v>
+      </c>
+      <c r="S261" t="n">
+        <v>22</v>
+      </c>
+      <c r="T261" t="n">
+        <v>9</v>
+      </c>
+      <c r="U261" t="n">
+        <v>50</v>
+      </c>
+      <c r="V261" t="n">
+        <v>18</v>
+      </c>
+      <c r="W261" t="n">
+        <v>100</v>
+      </c>
+      <c r="X261" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>18 (100%)</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF261" s="2" t="n">
+        <v>0.3895833333333333</v>
+      </c>
+      <c r="AG261" s="2" t="n">
+        <v>0.6243055555555556</v>
+      </c>
+      <c r="AH261" s="2" t="n">
+        <v>0.2347222222222222</v>
+      </c>
+      <c r="AI261" s="2" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC261" t="inlineStr">
+        <is>
+          <t>2906239551</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B262" t="n">
+        <v>36713205</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Juan Pablo Muñoz</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>HKRH24</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>90</v>
+      </c>
+      <c r="G262" t="n">
+        <v>39</v>
+      </c>
+      <c r="H262" t="n">
+        <v>33</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>4</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>20</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>5</v>
+      </c>
+      <c r="S262" t="n">
+        <v>13</v>
+      </c>
+      <c r="T262" t="n">
+        <v>12</v>
+      </c>
+      <c r="U262" t="n">
+        <v>31</v>
+      </c>
+      <c r="V262" t="n">
+        <v>19</v>
+      </c>
+      <c r="W262" t="n">
+        <v>49</v>
+      </c>
+      <c r="X262" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>97</v>
+      </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>39 (100%)</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF262" s="2" t="n">
+        <v>0.4145833333333334</v>
+      </c>
+      <c r="AG262" s="2" t="n">
+        <v>0.8451388888888889</v>
+      </c>
+      <c r="AH262" s="2" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="AI262" s="2" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B263" t="n">
+        <v>36713223</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Jose Cañas</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>PGTZ27</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>139</v>
+      </c>
+      <c r="G263" t="n">
+        <v>28</v>
+      </c>
+      <c r="H263" t="n">
+        <v>24</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>16</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="n">
+        <v>9</v>
+      </c>
+      <c r="S263" t="n">
+        <v>32</v>
+      </c>
+      <c r="T263" t="n">
+        <v>16</v>
+      </c>
+      <c r="U263" t="n">
+        <v>57</v>
+      </c>
+      <c r="V263" t="n">
+        <v>23</v>
+      </c>
+      <c r="W263" t="n">
+        <v>82</v>
+      </c>
+      <c r="X263" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>28 (100%)</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF263" s="2" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="AG263" s="2" t="n">
+        <v>0.6784722222222223</v>
+      </c>
+      <c r="AH263" s="2" t="n">
+        <v>0.2944444444444445</v>
+      </c>
+      <c r="AI263" s="2" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC263" t="inlineStr">
+        <is>
+          <t>687996</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B264" t="n">
+        <v>36715288</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Jaime Arriagada</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>CRPT48</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>41</v>
+      </c>
+      <c r="G264" t="n">
+        <v>29</v>
+      </c>
+      <c r="H264" t="n">
+        <v>21</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
+        <v>6</v>
+      </c>
+      <c r="S264" t="n">
+        <v>21</v>
+      </c>
+      <c r="T264" t="n">
+        <v>20</v>
+      </c>
+      <c r="U264" t="n">
+        <v>69</v>
+      </c>
+      <c r="V264" t="n">
+        <v>29</v>
+      </c>
+      <c r="W264" t="n">
+        <v>100</v>
+      </c>
+      <c r="X264" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>29 (100%)</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF264" s="2" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="AG264" s="2" t="n">
+        <v>0.60625</v>
+      </c>
+      <c r="AH264" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI264" s="2" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>93</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC264" t="inlineStr">
+        <is>
+          <t>2906240338 - 687982</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B265" t="n">
+        <v>36715296</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Eladio Velez</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>PBFL63</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>63</v>
+      </c>
+      <c r="G265" t="n">
+        <v>32</v>
+      </c>
+      <c r="H265" t="n">
+        <v>30</v>
+      </c>
+      <c r="I265" t="n">
+        <v>2</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="n">
+        <v>6</v>
+      </c>
+      <c r="S265" t="n">
+        <v>19</v>
+      </c>
+      <c r="T265" t="n">
+        <v>15</v>
+      </c>
+      <c r="U265" t="n">
+        <v>47</v>
+      </c>
+      <c r="V265" t="n">
+        <v>26</v>
+      </c>
+      <c r="W265" t="n">
+        <v>81</v>
+      </c>
+      <c r="X265" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>32 (100%)</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF265" s="2" t="n">
+        <v>0.4243055555555555</v>
+      </c>
+      <c r="AG265" s="2" t="n">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="AH265" s="2" t="n">
+        <v>0.2472222222222222</v>
+      </c>
+      <c r="AI265" s="2" t="n">
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC265" t="inlineStr">
+        <is>
+          <t>1203221601 - 1203833201</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B266" t="n">
+        <v>36715301</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Eduard Estaba</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>GJGW71</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>97</v>
+      </c>
+      <c r="G266" t="n">
+        <v>39</v>
+      </c>
+      <c r="H266" t="n">
+        <v>28</v>
+      </c>
+      <c r="I266" t="n">
+        <v>11</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="n">
+        <v>1</v>
+      </c>
+      <c r="S266" t="n">
+        <v>3</v>
+      </c>
+      <c r="T266" t="n">
+        <v>12</v>
+      </c>
+      <c r="U266" t="n">
+        <v>31</v>
+      </c>
+      <c r="V266" t="n">
+        <v>23</v>
+      </c>
+      <c r="W266" t="n">
+        <v>59</v>
+      </c>
+      <c r="X266" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>39 (100%)</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF266" s="2" t="n">
+        <v>0.4208333333333333</v>
+      </c>
+      <c r="AG266" s="2" t="n">
+        <v>0.7784722222222222</v>
+      </c>
+      <c r="AH266" s="2" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="AI266" s="2" t="n">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>87</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC266" t="inlineStr">
+        <is>
+          <t>1203811901 - 688005 - 687915 - 687899 - 687941</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B267" t="n">
+        <v>36715981</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Daniel Santos - Viña</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>DPCL47</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>78</v>
+      </c>
+      <c r="G267" t="n">
+        <v>26</v>
+      </c>
+      <c r="H267" t="n">
+        <v>22</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>4</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="n">
+        <v>6</v>
+      </c>
+      <c r="S267" t="n">
+        <v>23</v>
+      </c>
+      <c r="T267" t="n">
+        <v>14</v>
+      </c>
+      <c r="U267" t="n">
+        <v>54</v>
+      </c>
+      <c r="V267" t="n">
+        <v>23</v>
+      </c>
+      <c r="W267" t="n">
+        <v>88</v>
+      </c>
+      <c r="X267" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>26 (100%)</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF267" s="2" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="AG267" s="2" t="n">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="AH267" s="2" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="AI267" s="2" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC267" t="inlineStr">
+        <is>
+          <t>1204084801</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B268" t="n">
+        <v>36715995</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Mauro Moncada - Viña</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>ZU3680</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>50</v>
+      </c>
+      <c r="G268" t="n">
+        <v>29</v>
+      </c>
+      <c r="H268" t="n">
+        <v>26</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>7</v>
+      </c>
+      <c r="S268" t="n">
+        <v>24</v>
+      </c>
+      <c r="T268" t="n">
+        <v>22</v>
+      </c>
+      <c r="U268" t="n">
+        <v>76</v>
+      </c>
+      <c r="V268" t="n">
+        <v>29</v>
+      </c>
+      <c r="W268" t="n">
+        <v>100</v>
+      </c>
+      <c r="X268" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>29 (100%)</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF268" s="2" t="n">
+        <v>0.4208333333333333</v>
+      </c>
+      <c r="AG268" s="2" t="n">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="AH268" s="2" t="n">
+        <v>0.1923611111111111</v>
+      </c>
+      <c r="AI268" s="2" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B269" t="n">
+        <v>36716128</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Jose Perez - Viña</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>PLZS76</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>218</v>
+      </c>
+      <c r="G269" t="n">
+        <v>22</v>
+      </c>
+      <c r="H269" t="n">
+        <v>21</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="n">
+        <v>7</v>
+      </c>
+      <c r="S269" t="n">
+        <v>32</v>
+      </c>
+      <c r="T269" t="n">
+        <v>13</v>
+      </c>
+      <c r="U269" t="n">
+        <v>59</v>
+      </c>
+      <c r="V269" t="n">
+        <v>14</v>
+      </c>
+      <c r="W269" t="n">
+        <v>64</v>
+      </c>
+      <c r="X269" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t>22 (100%)</t>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF269" s="2" t="n">
+        <v>0.4208333333333333</v>
+      </c>
+      <c r="AG269" s="2" t="n">
+        <v>0.6798611111111111</v>
+      </c>
+      <c r="AH269" s="2" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="AI269" s="2" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>91</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC269" t="inlineStr">
+        <is>
+          <t>384999619 - 2906244131</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B270" t="n">
+        <v>36716365</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Alexander Yañez</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>PBFL64</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>78</v>
+      </c>
+      <c r="G270" t="n">
+        <v>25</v>
+      </c>
+      <c r="H270" t="n">
+        <v>14</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>0</v>
+      </c>
+      <c r="T270" t="n">
+        <v>3</v>
+      </c>
+      <c r="U270" t="n">
+        <v>12</v>
+      </c>
+      <c r="V270" t="n">
+        <v>13</v>
+      </c>
+      <c r="W270" t="n">
+        <v>52</v>
+      </c>
+      <c r="X270" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t>25 (100%)</t>
+        </is>
+      </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF270" s="2" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="AG270" s="2" t="n">
+        <v>0.7479166666666667</v>
+      </c>
+      <c r="AH270" s="2" t="n">
+        <v>0.2409722222222222</v>
+      </c>
+      <c r="AI270" s="2" t="n">
+        <v>0.009027777777777777</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>92</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC270" t="inlineStr">
+        <is>
+          <t>688003 - 687954</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B271" t="n">
+        <v>36716390</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Bernardita Albornoz</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>RWVH67</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>131</v>
+      </c>
+      <c r="G271" t="n">
+        <v>32</v>
+      </c>
+      <c r="H271" t="n">
+        <v>27</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="n">
+        <v>5</v>
+      </c>
+      <c r="S271" t="n">
+        <v>16</v>
+      </c>
+      <c r="T271" t="n">
+        <v>13</v>
+      </c>
+      <c r="U271" t="n">
+        <v>41</v>
+      </c>
+      <c r="V271" t="n">
+        <v>23</v>
+      </c>
+      <c r="W271" t="n">
+        <v>72</v>
+      </c>
+      <c r="X271" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD271" t="inlineStr">
+        <is>
+          <t>32 (100%)</t>
+        </is>
+      </c>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF271" s="2" t="n">
+        <v>0.4243055555555555</v>
+      </c>
+      <c r="AG271" s="2" t="n">
+        <v>0.7541666666666667</v>
+      </c>
+      <c r="AH271" s="2" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="AI271" s="2" t="n">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>97</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC271" t="inlineStr">
+        <is>
+          <t>687991</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B272" t="n">
+        <v>36716405</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Ricardo Gonzalez</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>LBWH91TY</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>91</v>
+      </c>
+      <c r="G272" t="n">
+        <v>40</v>
+      </c>
+      <c r="H272" t="n">
+        <v>37</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="n">
+        <v>4</v>
+      </c>
+      <c r="S272" t="n">
+        <v>10</v>
+      </c>
+      <c r="T272" t="n">
+        <v>11</v>
+      </c>
+      <c r="U272" t="n">
+        <v>28</v>
+      </c>
+      <c r="V272" t="n">
+        <v>24</v>
+      </c>
+      <c r="W272" t="n">
+        <v>60</v>
+      </c>
+      <c r="X272" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>40 (100%)</t>
+        </is>
+      </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF272" s="2" t="n">
+        <v>0.4347222222222222</v>
+      </c>
+      <c r="AG272" s="2" t="n">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="AH272" s="2" t="n">
+        <v>0.3208333333333334</v>
+      </c>
+      <c r="AI272" s="2" t="n">
+        <v>0.007638888888888889</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>98</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC272" t="inlineStr">
+        <is>
+          <t>1203134502</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B273" t="n">
+        <v>36717695</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Carlos Orellana</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>CLRK73</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>127</v>
+      </c>
+      <c r="G273" t="n">
+        <v>9</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>9</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>9</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
+      <c r="S273" t="n">
+        <v>0</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3</v>
+      </c>
+      <c r="U273" t="n">
+        <v>33</v>
+      </c>
+      <c r="V273" t="n">
+        <v>9</v>
+      </c>
+      <c r="W273" t="n">
+        <v>100</v>
+      </c>
+      <c r="X273" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD273" t="inlineStr">
+        <is>
+          <t>9 (100%)</t>
+        </is>
+      </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF273" s="2" t="n">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="AG273" s="2" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AH273" s="2" t="n">
+        <v>0.05416666666666667</v>
+      </c>
+      <c r="AI273" s="2" t="n">
+        <v>0.005555555555555556</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B274" t="n">
+        <v>36717698</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Manuel Concha</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>PPXH35</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>32</v>
+      </c>
+      <c r="G274" t="n">
+        <v>14</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>14</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>14</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>0</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2</v>
+      </c>
+      <c r="U274" t="n">
+        <v>14</v>
+      </c>
+      <c r="V274" t="n">
+        <v>9</v>
+      </c>
+      <c r="W274" t="n">
+        <v>64</v>
+      </c>
+      <c r="X274" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD274" t="inlineStr">
+        <is>
+          <t>14 (100%)</t>
+        </is>
+      </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF274" s="2" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="AG274" s="2" t="n">
+        <v>0.7444444444444445</v>
+      </c>
+      <c r="AH274" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI274" s="2" t="n">
+        <v>0.01736111111111111</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B275" t="n">
+        <v>36718204</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Mario Cejas</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>SLCP83</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>39</v>
+      </c>
+      <c r="G275" t="n">
+        <v>29</v>
+      </c>
+      <c r="H275" t="n">
+        <v>23</v>
+      </c>
+      <c r="I275" t="n">
+        <v>5</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="n">
+        <v>3</v>
+      </c>
+      <c r="S275" t="n">
+        <v>10</v>
+      </c>
+      <c r="T275" t="n">
+        <v>11</v>
+      </c>
+      <c r="U275" t="n">
+        <v>38</v>
+      </c>
+      <c r="V275" t="n">
+        <v>17</v>
+      </c>
+      <c r="W275" t="n">
+        <v>59</v>
+      </c>
+      <c r="X275" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t>29 (100%)</t>
+        </is>
+      </c>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF275" s="2" t="n">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="AG275" s="2" t="n">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="AH275" s="2" t="n">
+        <v>0.3236111111111111</v>
+      </c>
+      <c r="AI275" s="2" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>97</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC275" t="inlineStr">
+        <is>
+          <t>687928</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B276" t="n">
+        <v>36718206</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Cristian Varetto</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>WJ5458</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>101</v>
+      </c>
+      <c r="G276" t="n">
+        <v>26</v>
+      </c>
+      <c r="H276" t="n">
+        <v>16</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" t="n">
+        <v>0</v>
+      </c>
+      <c r="T276" t="n">
+        <v>6</v>
+      </c>
+      <c r="U276" t="n">
+        <v>23</v>
+      </c>
+      <c r="V276" t="n">
+        <v>17</v>
+      </c>
+      <c r="W276" t="n">
+        <v>65</v>
+      </c>
+      <c r="X276" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD276" t="inlineStr">
+        <is>
+          <t>26 (100%)</t>
+        </is>
+      </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF276" s="2" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="AG276" s="2" t="n">
+        <v>0.7020833333333333</v>
+      </c>
+      <c r="AH276" s="2" t="n">
+        <v>0.2263888888888889</v>
+      </c>
+      <c r="AI276" s="2" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B277" t="n">
+        <v>36718367</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Enrique Arcila - Viña Del Mar</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>DVCC69</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>55</v>
+      </c>
+      <c r="G277" t="n">
+        <v>26</v>
+      </c>
+      <c r="H277" t="n">
+        <v>26</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="n">
+        <v>1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>4</v>
+      </c>
+      <c r="T277" t="n">
+        <v>10</v>
+      </c>
+      <c r="U277" t="n">
+        <v>38</v>
+      </c>
+      <c r="V277" t="n">
+        <v>22</v>
+      </c>
+      <c r="W277" t="n">
+        <v>85</v>
+      </c>
+      <c r="X277" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD277" t="inlineStr">
+        <is>
+          <t>26 (100%)</t>
+        </is>
+      </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF277" s="2" t="n">
+        <v>0.4576388888888889</v>
+      </c>
+      <c r="AG277" s="2" t="n">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="AH277" s="2" t="n">
+        <v>0.1951388888888889</v>
+      </c>
+      <c r="AI277" s="2" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B278" t="n">
+        <v>36718640</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Hector Vejar</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>RPFZ99</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>46</v>
+      </c>
+      <c r="G278" t="n">
+        <v>6</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>6</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2</v>
+      </c>
+      <c r="S278" t="n">
+        <v>33</v>
+      </c>
+      <c r="T278" t="n">
+        <v>6</v>
+      </c>
+      <c r="U278" t="n">
+        <v>100</v>
+      </c>
+      <c r="V278" t="n">
+        <v>6</v>
+      </c>
+      <c r="W278" t="n">
+        <v>100</v>
+      </c>
+      <c r="X278" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD278" t="inlineStr">
+        <is>
+          <t>6 (100%)</t>
+        </is>
+      </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF278" s="2" t="n">
+        <v>0.4506944444444445</v>
+      </c>
+      <c r="AG278" s="2" t="n">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="AH278" s="2" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AI278" s="2" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B279" t="n">
+        <v>36719690</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Daniel Morales - Viña</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>JXDP55</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>V - Valparaiso</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>297</v>
+      </c>
+      <c r="G279" t="n">
+        <v>23</v>
+      </c>
+      <c r="H279" t="n">
+        <v>21</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="n">
+        <v>1</v>
+      </c>
+      <c r="S279" t="n">
+        <v>4</v>
+      </c>
+      <c r="T279" t="n">
+        <v>6</v>
+      </c>
+      <c r="U279" t="n">
+        <v>26</v>
+      </c>
+      <c r="V279" t="n">
+        <v>11</v>
+      </c>
+      <c r="W279" t="n">
+        <v>48</v>
+      </c>
+      <c r="X279" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>78</v>
+      </c>
+      <c r="AD279" t="inlineStr">
+        <is>
+          <t>23 (100%)</t>
+        </is>
+      </c>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF279" s="2" t="n">
+        <v>0.4541666666666667</v>
+      </c>
+      <c r="AG279" s="2" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="AH279" s="2" t="n">
+        <v>0.4076388888888889</v>
+      </c>
+      <c r="AI279" s="2" t="n">
+        <v>0.01736111111111111</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC279" t="inlineStr">
+        <is>
+          <t>1203760301</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B280" t="n">
+        <v>36720698</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Transporte 7</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>RGRR43</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>31</v>
+      </c>
+      <c r="G280" t="n">
+        <v>5</v>
+      </c>
+      <c r="H280" t="n">
+        <v>5</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
+      <c r="S280" t="n">
+        <v>0</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2</v>
+      </c>
+      <c r="U280" t="n">
+        <v>40</v>
+      </c>
+      <c r="V280" t="n">
+        <v>5</v>
+      </c>
+      <c r="W280" t="n">
+        <v>100</v>
+      </c>
+      <c r="X280" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD280" t="inlineStr">
+        <is>
+          <t>5 (100%)</t>
+        </is>
+      </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF280" s="2" t="n">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="AG280" s="2" t="n">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="AH280" s="2" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="AI280" s="2" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B281" t="n">
+        <v>36720904</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Luis Plaza</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>PBFL60</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>74</v>
+      </c>
+      <c r="G281" t="n">
+        <v>16</v>
+      </c>
+      <c r="H281" t="n">
+        <v>16</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="n">
+        <v>5</v>
+      </c>
+      <c r="S281" t="n">
+        <v>31</v>
+      </c>
+      <c r="T281" t="n">
+        <v>16</v>
+      </c>
+      <c r="U281" t="n">
+        <v>100</v>
+      </c>
+      <c r="V281" t="n">
+        <v>16</v>
+      </c>
+      <c r="W281" t="n">
+        <v>100</v>
+      </c>
+      <c r="X281" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD281" t="inlineStr">
+        <is>
+          <t>16 (100%)</t>
+        </is>
+      </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF281" s="2" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+      <c r="AG281" s="2" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AH281" s="2" t="n">
+        <v>0.07430555555555556</v>
+      </c>
+      <c r="AI281" s="2" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B282" t="n">
+        <v>36724903</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Cristian Cofre</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>HKRT78</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>326</v>
+      </c>
+      <c r="G282" t="n">
+        <v>29</v>
+      </c>
+      <c r="H282" t="n">
+        <v>19</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>2</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
+      <c r="S282" t="n">
+        <v>0</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2</v>
+      </c>
+      <c r="U282" t="n">
+        <v>7</v>
+      </c>
+      <c r="V282" t="n">
+        <v>10</v>
+      </c>
+      <c r="W282" t="n">
+        <v>34</v>
+      </c>
+      <c r="X282" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>76</v>
+      </c>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t>29 (100%)</t>
+        </is>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF282" s="2" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AG282" s="2" t="n">
+        <v>0.8972222222222223</v>
+      </c>
+      <c r="AH282" s="2" t="n">
+        <v>0.3722222222222222</v>
+      </c>
+      <c r="AI282" s="2" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B283" t="n">
+        <v>36731423</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Operaciones 2</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>JXBB71</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>10</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
+      <c r="S283" t="n">
+        <v>0</v>
+      </c>
+      <c r="T283" t="n">
+        <v>0</v>
+      </c>
+      <c r="U283" t="n">
+        <v>0</v>
+      </c>
+      <c r="V283" t="n">
+        <v>1</v>
+      </c>
+      <c r="W283" t="n">
+        <v>100</v>
+      </c>
+      <c r="X283" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD283" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF283" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG283" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH283" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI283" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B284" t="n">
+        <v>36742928</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Victor Molina</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>CZWV69</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>6</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>6</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
+      <c r="S284" t="n">
+        <v>0</v>
+      </c>
+      <c r="T284" t="n">
+        <v>0</v>
+      </c>
+      <c r="U284" t="n">
+        <v>0</v>
+      </c>
+      <c r="V284" t="n">
+        <v>0</v>
+      </c>
+      <c r="W284" t="n">
+        <v>0</v>
+      </c>
+      <c r="X284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD284" t="inlineStr">
+        <is>
+          <t>6 (100%)</t>
+        </is>
+      </c>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF284" s="2" t="n">
+        <v>0.7618055555555555</v>
+      </c>
+      <c r="AG284" s="2" t="n">
+        <v>0.7618055555555555</v>
+      </c>
+      <c r="AH284" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI284" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B285" t="n">
+        <v>36745777</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Transporte 1</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>RGLV64</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
+      <c r="S285" t="n">
+        <v>0</v>
+      </c>
+      <c r="T285" t="n">
+        <v>0</v>
+      </c>
+      <c r="U285" t="n">
+        <v>0</v>
+      </c>
+      <c r="V285" t="n">
+        <v>0</v>
+      </c>
+      <c r="W285" t="n">
+        <v>0</v>
+      </c>
+      <c r="X285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD285" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF285" s="2" t="n">
+        <v>0.8243055555555555</v>
+      </c>
+      <c r="AG285" s="2" t="n">
+        <v>0.8243055555555555</v>
+      </c>
+      <c r="AH285" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI285" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B286" t="n">
+        <v>36745778</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Transporte 5</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>GZYP38</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
+      <c r="S286" t="n">
+        <v>0</v>
+      </c>
+      <c r="T286" t="n">
+        <v>0</v>
+      </c>
+      <c r="U286" t="n">
+        <v>0</v>
+      </c>
+      <c r="V286" t="n">
+        <v>0</v>
+      </c>
+      <c r="W286" t="n">
+        <v>0</v>
+      </c>
+      <c r="X286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD286" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF286" s="2" t="n">
+        <v>0.8326388888888889</v>
+      </c>
+      <c r="AG286" s="2" t="n">
+        <v>0.8326388888888889</v>
+      </c>
+      <c r="AH286" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI286" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B287" t="n">
+        <v>36745779</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Transporte 4</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>RGRR44</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>XIII - Metropolitana</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
+      <c r="S287" t="n">
+        <v>0</v>
+      </c>
+      <c r="T287" t="n">
+        <v>0</v>
+      </c>
+      <c r="U287" t="n">
+        <v>0</v>
+      </c>
+      <c r="V287" t="n">
+        <v>0</v>
+      </c>
+      <c r="W287" t="n">
+        <v>0</v>
+      </c>
+      <c r="X287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>1 (100%)</t>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="AF287" s="2" t="n">
+        <v>0.8826388888888889</v>
+      </c>
+      <c r="AG287" s="2" t="n">
+        <v>0.8826388888888889</v>
+      </c>
+      <c r="AH287" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI287" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
